--- a/xlsx/msg.xlsx
+++ b/xlsx/msg.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4CE78E-907B-4F72-B266-EE47100B0A35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4095" yWindow="330" windowWidth="19200" windowHeight="11640" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="list" sheetId="2" r:id="rId1"/>
@@ -12,7 +13,14 @@
     <sheet name="errcode" sheetId="3" r:id="rId3"/>
     <sheet name="desc" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="144525" concurrentCalc="0"/>
+  <calcPr calcId="181029" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -119,200 +127,201 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>错误</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>成功</t>
+    <t>TIMEOUT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB_NO_DATA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SUCESS</t>
+  </si>
+  <si>
+    <t>FAILED</t>
+  </si>
+  <si>
+    <t>武力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>智力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法防</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理穿透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法术穿透</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>基础</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追加属性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淬炼成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强化成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加锁成功</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金宝箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>元宝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>银两</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sell-id</t>
+  </si>
+  <si>
+    <t>sell-num</t>
+  </si>
+  <si>
+    <t>出售获得物品1</t>
+  </si>
+  <si>
+    <t>出售获得物品数量1</t>
+  </si>
+  <si>
+    <t>出售获得物品2</t>
+  </si>
+  <si>
+    <t>出售获得物品数量2</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>instance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售获得物品3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售获得物品数量3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>UNKNOW_CMD</t>
-  </si>
-  <si>
-    <t>TIMEOUT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>DB_NO_DATA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SUCESS</t>
-  </si>
-  <si>
-    <t>FAILED</t>
-  </si>
-  <si>
-    <t>DB中无数据</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>服务器内部超时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>武力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪避</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>物理穿透</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>法术穿透</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>基础</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>追加属性</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淬炼成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强化成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>解锁成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>加锁成功</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银宝箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>金宝箱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>元宝</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>银两</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>月</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>未知协议</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>remark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sell-id</t>
-  </si>
-  <si>
-    <t>sell-num</t>
-  </si>
-  <si>
-    <t>出售获得物品1</t>
-  </si>
-  <si>
-    <t>出售获得物品数量1</t>
-  </si>
-  <si>
-    <t>出售获得物品2</t>
-  </si>
-  <si>
-    <t>出售获得物品数量2</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>instance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>副本1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出售获得物品3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出售获得物品数量3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成功了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出错误了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>未知协议了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器内部超时了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DB中无数据了</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,6 +379,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -417,7 +429,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -450,9 +462,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -485,6 +514,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -660,21 +706,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>18</v>
       </c>
@@ -687,25 +733,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.875" customWidth="1"/>
-    <col min="2" max="2" width="17.625" customWidth="1"/>
-    <col min="3" max="6" width="15.5" customWidth="1"/>
-    <col min="7" max="7" width="16.875" customWidth="1"/>
-    <col min="8" max="8" width="15.5" customWidth="1"/>
-    <col min="9" max="9" width="16.875" customWidth="1"/>
-    <col min="10" max="13" width="15.5" customWidth="1"/>
+    <col min="1" max="1" width="18.88671875" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
+    <col min="3" max="6" width="15.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
+    <col min="8" max="8" width="15.44140625" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" customWidth="1"/>
+    <col min="10" max="13" width="15.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -716,40 +762,40 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="G1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="N1" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -760,40 +806,40 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>72</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="N2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -804,40 +850,40 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="N3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1000</v>
       </c>
@@ -878,10 +924,10 @@
         <v>100</v>
       </c>
       <c r="N4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
         <f t="shared" ref="A5:A16" si="0">A4+1</f>
         <v>1001</v>
@@ -923,10 +969,10 @@
         <v>101</v>
       </c>
       <c r="N5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <f t="shared" si="0"/>
         <v>1002</v>
@@ -968,10 +1014,10 @@
         <v>102</v>
       </c>
       <c r="N6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <f t="shared" si="0"/>
         <v>1003</v>
@@ -1013,10 +1059,10 @@
         <v>103</v>
       </c>
       <c r="N7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
         <f t="shared" si="0"/>
         <v>1004</v>
@@ -1058,10 +1104,10 @@
         <v>104</v>
       </c>
       <c r="N8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <f t="shared" si="0"/>
         <v>1005</v>
@@ -1103,10 +1149,10 @@
         <v>105</v>
       </c>
       <c r="N9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <f t="shared" si="0"/>
         <v>1006</v>
@@ -1148,10 +1194,10 @@
         <v>106</v>
       </c>
       <c r="N10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
         <f t="shared" si="0"/>
         <v>1007</v>
@@ -1193,10 +1239,10 @@
         <v>107</v>
       </c>
       <c r="N11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
         <f t="shared" si="0"/>
         <v>1008</v>
@@ -1238,10 +1284,10 @@
         <v>108</v>
       </c>
       <c r="N12" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
         <f t="shared" si="0"/>
         <v>1009</v>
@@ -1250,7 +1296,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="D13" s="2">
         <v>8000001</v>
@@ -1283,10 +1329,10 @@
         <v>109</v>
       </c>
       <c r="N13" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <f t="shared" si="0"/>
         <v>1010</v>
@@ -1295,7 +1341,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="D14" s="2">
         <v>8000001</v>
@@ -1328,10 +1374,10 @@
         <v>110</v>
       </c>
       <c r="N14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <f t="shared" si="0"/>
         <v>1011</v>
@@ -1340,7 +1386,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="D15" s="2">
         <v>8000001</v>
@@ -1373,10 +1419,10 @@
         <v>111</v>
       </c>
       <c r="N15" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.15">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <f t="shared" si="0"/>
         <v>1012</v>
@@ -1385,7 +1431,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D16" s="2">
         <v>8000001</v>
@@ -1418,7 +1464,7 @@
         <v>112</v>
       </c>
       <c r="N16" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1429,23 +1475,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:C8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="E1" sqref="E1:E1048576"/>
+      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="34.375" customWidth="1"/>
-    <col min="3" max="3" width="47.75" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" customWidth="1"/>
+    <col min="3" max="3" width="47.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>19</v>
       </c>
@@ -1456,7 +1502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -1467,7 +1513,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1478,59 +1524,59 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.15">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.15">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>27</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.15">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.15">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -1541,19 +1587,19 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I48" sqref="I48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1561,7 +1607,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1569,7 +1615,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1577,188 +1623,188 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1000</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1001</v>
       </c>
       <c r="B5" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1003</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1004</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.15">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1005</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.15">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1006</v>
       </c>
       <c r="B10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.15">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1007</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.15">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1008</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.15">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1009</v>
       </c>
       <c r="B13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.15">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1010</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1011</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.15">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1012</v>
       </c>
       <c r="B16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1013</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1014</v>
       </c>
       <c r="B18" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1015</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.15">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1016</v>
       </c>
       <c r="B20" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.15">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1017</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.15">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>1018</v>
       </c>
       <c r="B22" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.15">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1019</v>
       </c>
       <c r="B23" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.15">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1020</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1021</v>
       </c>
       <c r="B25" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.15">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1022</v>
       </c>
       <c r="B26" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/msg.xlsx
+++ b/xlsx/msg.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21727"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA4CE78E-907B-4F72-B266-EE47100B0A35}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{899EBADF-5730-4847-B4BD-ED9189549450}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="74">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,10 +96,6 @@
   </si>
   <si>
     <t>出售失败</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>errcode</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -762,37 +758,37 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="H1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="N1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
@@ -806,37 +802,37 @@
         <v>5</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>63</v>
-      </c>
       <c r="H2" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>68</v>
-      </c>
       <c r="J2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="M2" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="N2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
@@ -850,34 +846,34 @@
         <v>6</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="L3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="N3" t="s">
         <v>6</v>
@@ -924,7 +920,7 @@
         <v>100</v>
       </c>
       <c r="N4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
@@ -969,7 +965,7 @@
         <v>101</v>
       </c>
       <c r="N5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1014,7 +1010,7 @@
         <v>102</v>
       </c>
       <c r="N6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
@@ -1059,7 +1055,7 @@
         <v>103</v>
       </c>
       <c r="N7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
@@ -1104,7 +1100,7 @@
         <v>104</v>
       </c>
       <c r="N8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1149,7 +1145,7 @@
         <v>105</v>
       </c>
       <c r="N9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -1194,7 +1190,7 @@
         <v>106</v>
       </c>
       <c r="N10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1239,7 +1235,7 @@
         <v>107</v>
       </c>
       <c r="N11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -1284,7 +1280,7 @@
         <v>108</v>
       </c>
       <c r="N12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
@@ -1296,7 +1292,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D13" s="2">
         <v>8000001</v>
@@ -1329,7 +1325,7 @@
         <v>109</v>
       </c>
       <c r="N13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
@@ -1341,7 +1337,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="2">
         <v>8000001</v>
@@ -1374,7 +1370,7 @@
         <v>110</v>
       </c>
       <c r="N14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
@@ -1386,7 +1382,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D15" s="2">
         <v>8000001</v>
@@ -1419,7 +1415,7 @@
         <v>111</v>
       </c>
       <c r="N15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
@@ -1431,7 +1427,7 @@
         <v>7</v>
       </c>
       <c r="C16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D16" s="2">
         <v>8000001</v>
@@ -1464,7 +1460,7 @@
         <v>112</v>
       </c>
       <c r="N16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1482,7 +1478,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="C12" sqref="C12"/>
+      <selection pane="bottomRight" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -1493,24 +1489,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
         <v>21</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C2" t="s">
         <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -1529,10 +1525,10 @@
         <v>0</v>
       </c>
       <c r="B4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -1540,10 +1536,10 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C5" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -1551,10 +1547,10 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -1562,10 +1558,10 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -1573,10 +1569,10 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>
@@ -1628,7 +1624,7 @@
         <v>1000</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1636,7 +1632,7 @@
         <v>1001</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1644,7 +1640,7 @@
         <v>1002</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1652,7 +1648,7 @@
         <v>1003</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1660,7 +1656,7 @@
         <v>1004</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1668,7 +1664,7 @@
         <v>1005</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1676,7 +1672,7 @@
         <v>1006</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1684,7 +1680,7 @@
         <v>1007</v>
       </c>
       <c r="B11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1692,7 +1688,7 @@
         <v>1008</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1700,7 +1696,7 @@
         <v>1009</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1708,7 +1704,7 @@
         <v>1010</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1716,7 +1712,7 @@
         <v>1011</v>
       </c>
       <c r="B15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1724,7 +1720,7 @@
         <v>1012</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1732,7 +1728,7 @@
         <v>1013</v>
       </c>
       <c r="B17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1740,7 +1736,7 @@
         <v>1014</v>
       </c>
       <c r="B18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1748,7 +1744,7 @@
         <v>1015</v>
       </c>
       <c r="B19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1756,7 +1752,7 @@
         <v>1016</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1764,7 +1760,7 @@
         <v>1017</v>
       </c>
       <c r="B21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1772,7 +1768,7 @@
         <v>1018</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1780,7 +1776,7 @@
         <v>1019</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1788,7 +1784,7 @@
         <v>1020</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1796,7 +1792,7 @@
         <v>1021</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1804,7 +1800,7 @@
         <v>1022</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
